--- a/data/trans_camb/P19C01-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P19C01-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 6,89</t>
+          <t>-7,24; 6,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,19; 21,49</t>
+          <t>6,35; 21,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,24; 37,38</t>
+          <t>23,9; 37,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 13,14</t>
+          <t>-4,83; 12,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,0; 20,15</t>
+          <t>3,62; 19,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,79; 32,36</t>
+          <t>18,39; 33,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 7,26</t>
+          <t>-3,41; 7,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,86; 18,75</t>
+          <t>7,67; 18,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>23,95; 33,38</t>
+          <t>23,46; 33,44</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-18,66; 20,66</t>
+          <t>-17,86; 19,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,86; 66,3</t>
+          <t>15,37; 65,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>59,23; 116,27</t>
+          <t>58,12; 113,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 35,57</t>
+          <t>-10,66; 33,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,23; 55,75</t>
+          <t>8,01; 53,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>38,35; 92,93</t>
+          <t>40,06; 91,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-9,22; 20,6</t>
+          <t>-8,27; 21,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,64; 52,96</t>
+          <t>18,81; 52,03</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>56,71; 93,49</t>
+          <t>54,69; 92,97</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 13,01</t>
+          <t>-1,0; 13,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,71; 23,79</t>
+          <t>7,52; 23,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>27,11; 41,18</t>
+          <t>27,62; 41,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,05; 15,52</t>
+          <t>0,02; 15,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,2; 24,07</t>
+          <t>9,03; 23,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,0; 37,35</t>
+          <t>22,71; 36,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 11,79</t>
+          <t>1,16; 12,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,99; 21,83</t>
+          <t>9,94; 21,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>27,07; 36,93</t>
+          <t>27,02; 37,22</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 48,05</t>
+          <t>-2,16; 52,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,64; 88,01</t>
+          <t>21,87; 88,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>75,58; 156,01</t>
+          <t>78,13; 159,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 45,46</t>
+          <t>-0,0; 47,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,1; 71,07</t>
+          <t>21,66; 70,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>54,16; 111,66</t>
+          <t>52,78; 109,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,76; 37,1</t>
+          <t>2,57; 37,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>27,05; 68,21</t>
+          <t>25,98; 68,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>70,68; 117,37</t>
+          <t>70,95; 118,93</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 5,29</t>
+          <t>-6,34; 5,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,07; 17,47</t>
+          <t>4,06; 16,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,62; 31,81</t>
+          <t>-16,48; 31,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-12,56; 6,95</t>
+          <t>-12,46; 6,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-12,89; 11,33</t>
+          <t>-12,68; 9,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,95; 30,38</t>
+          <t>10,16; 30,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 3,76</t>
+          <t>-6,09; 4,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,03; 13,12</t>
+          <t>1,99; 13,41</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-16,0; 28,69</t>
+          <t>-10,35; 29,1</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-21,71; 22,59</t>
+          <t>-21,54; 22,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,77; 77,09</t>
+          <t>14,84; 69,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-50,37; 122,43</t>
+          <t>-55,18; 120,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-30,46; 25,39</t>
+          <t>-30,9; 23,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-32,18; 39,48</t>
+          <t>-31,04; 32,36</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>26,14; 109,66</t>
+          <t>25,5; 105,65</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-17,57; 15,0</t>
+          <t>-18,77; 15,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,55; 49,27</t>
+          <t>6,08; 49,23</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-51,44; 101,98</t>
+          <t>-36,0; 104,21</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 3,68</t>
+          <t>-4,19; 3,91</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,74; 16,54</t>
+          <t>8,24; 16,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>22,86; 31,94</t>
+          <t>22,98; 32,36</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 7,27</t>
+          <t>-3,76; 7,02</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,75; 11,87</t>
+          <t>0,59; 11,59</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 28,74</t>
+          <t>-9,58; 28,41</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 4,06</t>
+          <t>-2,48; 3,92</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,01; 13,09</t>
+          <t>6,39; 13,38</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,85; 28,82</t>
+          <t>6,24; 28,69</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-17,84; 16,56</t>
+          <t>-15,76; 17,54</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>28,17; 74,08</t>
+          <t>31,74; 76,03</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>83,91; 143,96</t>
+          <t>84,38; 144,42</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 24,58</t>
+          <t>-10,47; 23,26</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,13; 38,77</t>
+          <t>1,58; 37,66</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-19,83; 89,22</t>
+          <t>-25,31; 87,64</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 15,38</t>
+          <t>-8,43; 14,9</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>20,22; 50,44</t>
+          <t>21,55; 51,47</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>18,01; 105,86</t>
+          <t>23,38; 105,11</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-15,1; -0,27</t>
+          <t>-13,68; 0,44</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 9,45</t>
+          <t>-5,04; 9,28</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>10,82; 25,53</t>
+          <t>10,17; 26,17</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 2,76</t>
+          <t>-8,87; 2,98</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,01; 14,85</t>
+          <t>3,0; 15,39</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>14,91; 35,34</t>
+          <t>15,22; 35,97</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-9,07; 0,22</t>
+          <t>-8,95; -0,11</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,24; 10,58</t>
+          <t>1,55; 10,44</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>15,64; 32,37</t>
+          <t>15,31; 30,59</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-45,4; -1,32</t>
+          <t>-42,85; 1,85</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-17,88; 40,35</t>
+          <t>-15,36; 40,32</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>32,76; 105,01</t>
+          <t>31,4; 114,84</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-25,89; 11,02</t>
+          <t>-27,55; 11,73</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>5,28; 57,85</t>
+          <t>9,54; 61,58</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>46,86; 137,88</t>
+          <t>48,86; 134,7</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-29,6; 0,24</t>
+          <t>-28,5; -0,72</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>3,32; 40,01</t>
+          <t>4,73; 41,07</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>49,9; 117,12</t>
+          <t>48,11; 114,73</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 14,27</t>
+          <t>-3,15; 16,09</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>1,61; 19,37</t>
+          <t>1,5; 19,56</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>8,63; 34,0</t>
+          <t>8,27; 33,56</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>2,25; 10,57</t>
+          <t>2,6; 10,96</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>13,62; 22,86</t>
+          <t>13,84; 23,13</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>27,89; 36,67</t>
+          <t>27,61; 36,38</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,81; 10,59</t>
+          <t>2,8; 10,4</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>14,02; 22,03</t>
+          <t>13,66; 21,42</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>26,08; 35,05</t>
+          <t>26,15; 34,83</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 36,04</t>
+          <t>-6,18; 40,75</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>2,81; 48,51</t>
+          <t>3,35; 49,38</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>18,85; 84,38</t>
+          <t>18,15; 84,22</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>8,68; 44,49</t>
+          <t>9,02; 45,6</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>48,75; 96,52</t>
+          <t>49,03; 97,2</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>99,95; 157,6</t>
+          <t>100,01; 155,78</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>9,09; 38,87</t>
+          <t>8,74; 38,2</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>45,48; 81,46</t>
+          <t>44,33; 79,91</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>84,27; 130,29</t>
+          <t>84,74; 128,91</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 2,12</t>
+          <t>-2,88; 2,24</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>8,04; 13,51</t>
+          <t>8,44; 13,7</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>11,27; 28,48</t>
+          <t>11,52; 28,38</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,5; 5,36</t>
+          <t>0,8; 5,53</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>9,69; 14,68</t>
+          <t>9,71; 14,9</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>14,65; 28,98</t>
+          <t>13,01; 29,07</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 3,2</t>
+          <t>-0,36; 3,07</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>9,84; 13,36</t>
+          <t>9,62; 13,33</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>17,05; 28,03</t>
+          <t>17,05; 28,07</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-10,19; 7,48</t>
+          <t>-9,22; 8,13</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>25,89; 47,72</t>
+          <t>26,95; 48,35</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>38,6; 97,84</t>
+          <t>38,95; 97,78</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>1,54; 17,9</t>
+          <t>2,42; 18,31</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>29,65; 49,11</t>
+          <t>30,03; 50,17</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>45,6; 94,17</t>
+          <t>44,01; 95,34</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 10,8</t>
+          <t>-1,13; 10,45</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>31,06; 45,0</t>
+          <t>30,44; 45,07</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>55,56; 92,83</t>
+          <t>54,93; 93,04</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C01-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P19C01-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
